--- a/data/trans_dic/P27F_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27F_2_R-Urba-trans_dic.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -98,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -111,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,298 +485,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población que no pudo recibir atención dental por motivos económicos cuando la necesitaba (tasa de respuesta: 99,85%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Urbano</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,68%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 9,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 9,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 7,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,57%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 6,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,02; 27,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 15,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 24,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 13,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 6,43</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 15,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 9,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -790,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir atención dental por motivos económicos cuando la necesitaba (tasa de respuesta: 99,85%)</t>
+          <t>Población que no pudo recibir atención dental por motivos económicos cuando la necesitaba (tasa de respuesta: 99,61%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -844,69 +560,51 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.04863939518712698</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.044904428427312</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.04668155346775237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>24538</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>26234</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>50772</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.02148833605895464</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.02165339548807256</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.02764578123246064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10882; 48185</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12971; 53178</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>29533; 84993</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.09480359513802072</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.08813063964719942</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.07835436662930413</v>
       </c>
     </row>
     <row r="7">
@@ -917,69 +615,51 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.02775195781538036</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.09280559936753476</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.0607609271135534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10241</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>45218</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>55458</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.009486576543273881</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.03894177516332362</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.02850777471564248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3713; 24991</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>17202; 117078</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>24346; 126394</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.07292767280184496</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2309805959825028</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.130686944000004</v>
       </c>
     </row>
     <row r="10">
@@ -990,69 +670,51 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.03615855057705358</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.04397973989636191</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.03998450558811384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5127</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5045</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>10172</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.008612377126147009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0; 29068</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0; 15271</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2023; 31070</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.2130133206991758</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.1316686447886192</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.1165886014172088</v>
       </c>
     </row>
     <row r="13">
@@ -1063,69 +725,51 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.03884267314404046</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.06347439773606346</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.05149601664186312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>39905</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>76497</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>116403</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.02124732989613387</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.03771148899328143</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.03348452042925857</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>21644; 67312</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>43736; 166676</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>75266; 208273</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.0653506616867244</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.1307801632004314</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.08614589901156805</v>
       </c>
     </row>
     <row r="16">
@@ -1145,4 +789,384 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir atención dental por motivos económicos cuando la necesitaba (tasa de respuesta: 99,61%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>24536</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>24955</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>49492</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>10840</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>12034</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>29310</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>47824</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>48978</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>83071</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>11554</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>39799</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>51353</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>3949</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>16700</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>24094</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>30361</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>99055</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>110452</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>4374</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>5095</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>9469</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>25768</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>15253</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>27610</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>40464</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>69849</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>110313</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>22134</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>41499</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>71729</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>68078</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>143915</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>184539</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>